--- a/bin/Debug/net48/template.xlsx
+++ b/bin/Debug/net48/template.xlsx
@@ -475,15 +475,17 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="4.5" customWidth="1"/>
-    <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="3.375" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="6" width="3.75" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
